--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1003031.624007361</v>
+        <v>-1005712.487070768</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>50.95712254726706</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>30.58936984740916</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>363.2152017981803</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,10 +829,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>85.36610313819132</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>152.4193156803287</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>96.15553751218955</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>282.2943541698699</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.57347476278318</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>95.73984699356326</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>111.8323572735667</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
@@ -1151,7 +1151,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>211.4108311297357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>8.906162259192023</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>114.399098561749</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>72.97607332171654</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>34.44047701880672</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.97774435452</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>149.8225411926533</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,7 +1777,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272898</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>151.0997254264188</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>80.33989744908955</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>46.29306638367412</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,10 +2953,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>22.04658882052618</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261737</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652589</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261737</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652589</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808191</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="44">
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1221.829536512124</v>
+        <v>807.4678323327887</v>
       </c>
       <c r="C2" t="n">
-        <v>1221.829536512124</v>
+        <v>807.4678323327887</v>
       </c>
       <c r="D2" t="n">
-        <v>863.5638379053734</v>
+        <v>807.4678323327887</v>
       </c>
       <c r="E2" t="n">
-        <v>863.5638379053734</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="F2" t="n">
-        <v>452.5779331157658</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4325,22 +4325,22 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
         <v>2055.22848474084</v>
@@ -4367,13 +4367,13 @@
         <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.31341879663</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="X2" t="n">
-        <v>1608.429376576246</v>
+        <v>1249.079005265436</v>
       </c>
       <c r="Y2" t="n">
-        <v>1608.429376576246</v>
+        <v>858.9396732896241</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049859</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1861.38035112061</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>751.3310369968233</v>
+        <v>494.7887257848004</v>
       </c>
       <c r="C4" t="n">
-        <v>582.3948540689164</v>
+        <v>494.7887257848004</v>
       </c>
       <c r="D4" t="n">
-        <v>432.2782146565806</v>
+        <v>494.7887257848004</v>
       </c>
       <c r="E4" t="n">
-        <v>284.3651210741875</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F4" t="n">
-        <v>137.4751735762772</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1379.903808862475</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>1125.219320656588</v>
       </c>
       <c r="W4" t="n">
-        <v>1381.76163186861</v>
+        <v>1125.219320656588</v>
       </c>
       <c r="X4" t="n">
-        <v>1153.772080970593</v>
+        <v>897.2297697585702</v>
       </c>
       <c r="Y4" t="n">
-        <v>932.979501827063</v>
+        <v>676.4371906150401</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.132293616577</v>
+        <v>1550.959102576163</v>
       </c>
       <c r="C5" t="n">
-        <v>1308.132293616577</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="D5" t="n">
-        <v>949.8665950098268</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="E5" t="n">
-        <v>564.0783424115825</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
         <v>51.2467865680031</v>
@@ -4565,13 +4565,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926625</v>
+        <v>2277.193516107357</v>
       </c>
       <c r="W5" t="n">
-        <v>2084.871465656511</v>
+        <v>1924.424860837243</v>
       </c>
       <c r="X5" t="n">
-        <v>2084.871465656511</v>
+        <v>1550.959102576163</v>
       </c>
       <c r="Y5" t="n">
-        <v>1694.732133680699</v>
+        <v>1550.959102576163</v>
       </c>
     </row>
     <row r="6">
@@ -4647,25 +4647,25 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1154.038517360656</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1541.323645957601</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>685.1760210978775</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C7" t="n">
-        <v>516.2398381699707</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="D7" t="n">
-        <v>366.1231987576349</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1150.699034738196</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1150.699034738196</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1150.699034738196</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X7" t="n">
-        <v>922.7094838401786</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>701.9169046966484</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1540.262284242502</v>
+        <v>1677.574522601424</v>
       </c>
       <c r="C8" t="n">
-        <v>1540.262284242502</v>
+        <v>1308.612005661013</v>
       </c>
       <c r="D8" t="n">
-        <v>1181.996585635751</v>
+        <v>950.3463070542623</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.996585635751</v>
+        <v>950.3463070542623</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800313</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
@@ -4817,10 +4817,10 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.250581723851</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583056</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W8" t="n">
-        <v>1753.808578312942</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X8" t="n">
-        <v>1753.808578312942</v>
+        <v>2064.174362665546</v>
       </c>
       <c r="Y8" t="n">
-        <v>1540.262284242502</v>
+        <v>2064.174362665546</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966393</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155124</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542614</v>
+        <v>607.916702154261</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488059</v>
+        <v>448.6792471488054</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756905</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182533</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>717.852508549538</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M9" t="n">
-        <v>1178.376567084329</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N9" t="n">
-        <v>1565.661695681275</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460313</v>
+        <v>2015.115393042427</v>
       </c>
       <c r="P9" t="n">
         <v>2447.02341329261</v>
@@ -4908,25 +4908,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815396</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.2127024906389</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="C10" t="n">
-        <v>349.276519562732</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1598801503962</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800313</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800313</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800313</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800313</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,7 +4981,7 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
         <v>1533.86271359008</v>
@@ -4990,22 +4990,22 @@
         <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1221.679320738073</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1221.679320738073</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>966.9948325321864</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W10" t="n">
-        <v>966.9948325321864</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X10" t="n">
-        <v>739.005281634169</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="Y10" t="n">
-        <v>518.2127024906389</v>
+        <v>60.24291006213647</v>
       </c>
     </row>
     <row r="11">
@@ -5021,16 +5021,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5039,19 +5039,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>334.7259677085632</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>334.7259677085632</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>167.5298684234431</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="14">
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>763.7541388327629</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5464,22 +5464,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2227.3616186032</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1938.286391947398</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1683.601903741511</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1394.18473370455</v>
       </c>
       <c r="X16" t="n">
-        <v>1394.184733704551</v>
+        <v>1166.195182806533</v>
       </c>
       <c r="Y16" t="n">
-        <v>1173.392154561021</v>
+        <v>945.4026036630027</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>699.73118040114</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
         <v>402.7245934908939</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1050.315828159287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E22" t="n">
         <v>402.7245934908939</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5981,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,13 +6063,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>244.7670222746423</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>103.0551911168404</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="29">
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>244.2098454714574</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,7 +6710,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,19 +6774,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
         <v>2001.151557821488</v>
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319335</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656828</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319335</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656828</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
@@ -7126,19 +7126,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7251,25 +7251,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384012</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,13 +7333,13 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
@@ -7351,31 +7351,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7400,10 +7400,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384024</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7588,7 +7588,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7597,7 +7597,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2529.355041543135</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580113</v>
@@ -7798,19 +7798,19 @@
         <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7985,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -8058,28 +8058,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6.454437538930335</v>
       </c>
       <c r="P3" t="n">
-        <v>54.95314511566465</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,28 +8295,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>199.7516311504066</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P6" t="n">
-        <v>54.95314511566545</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621888</v>
       </c>
       <c r="M9" t="n">
-        <v>98.24448441976875</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.160150103916</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>186.591198401905</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154985</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>-3.824271744423714e-13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>331.7767191162135</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>304.5788812885928</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>380.9583329255448</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>67.31863952450735</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>191.2691783702304</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.8542358274173</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>17.42427990597457</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>67.484927925676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>66.09406519747962</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>72.11969353038565</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>205.8445769401539</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>126.5688841976862</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-9.114931159858293e-13</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>169252.1408943218</v>
+        <v>169252.1408943219</v>
       </c>
       <c r="C2" t="n">
         <v>205260.4424660708</v>
       </c>
       <c r="D2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="E2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="F2" t="n">
         <v>201786.6499225016</v>
@@ -26329,25 +26329,25 @@
         <v>201786.6499225015</v>
       </c>
       <c r="H2" t="n">
+        <v>201786.6499225015</v>
+      </c>
+      <c r="I2" t="n">
         <v>201786.6499225016</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>201786.6499225015</v>
-      </c>
-      <c r="J2" t="n">
-        <v>201786.6499225016</v>
       </c>
       <c r="K2" t="n">
         <v>201786.6499225016</v>
       </c>
       <c r="L2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660712</v>
       </c>
       <c r="M2" t="n">
         <v>205260.4424660712</v>
       </c>
       <c r="N2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.442466071</v>
       </c>
       <c r="O2" t="n">
         <v>205260.4424660709</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.920889983215602e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245456</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363175</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289269</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.400124791776761e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,31 +26430,31 @@
         <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.42449670737</v>
+        <v>6897.424496707362</v>
       </c>
       <c r="H4" t="n">
+        <v>6897.424496707369</v>
+      </c>
+      <c r="I4" t="n">
         <v>6897.424496707359</v>
       </c>
-      <c r="I4" t="n">
-        <v>6897.424496707374</v>
-      </c>
       <c r="J4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707373</v>
+        <v>6897.424496707328</v>
       </c>
       <c r="L4" t="n">
-        <v>14888.28375980084</v>
+        <v>14888.28375980083</v>
       </c>
       <c r="M4" t="n">
+        <v>14888.28375980081</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14888.28375980085</v>
+      </c>
+      <c r="O4" t="n">
         <v>14888.28375980083</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14888.28375980084</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14888.28375980084</v>
       </c>
       <c r="P4" t="n">
         <v>14888.28375980083</v>
@@ -26473,7 +26473,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1088137.73001593</v>
+        <v>-1088497.813031647</v>
       </c>
       <c r="C6" t="n">
-        <v>-19587.05680539866</v>
+        <v>-19587.05680539884</v>
       </c>
       <c r="D6" t="n">
-        <v>-19587.05680539907</v>
+        <v>-19587.05680539877</v>
       </c>
       <c r="E6" t="n">
-        <v>-413718.7460226585</v>
+        <v>-413753.4839480944</v>
       </c>
       <c r="F6" t="n">
-        <v>93766.69560188708</v>
+        <v>93731.95767645142</v>
       </c>
       <c r="G6" t="n">
-        <v>93766.69560188706</v>
+        <v>93731.95767645136</v>
       </c>
       <c r="H6" t="n">
-        <v>93766.69560188708</v>
+        <v>93731.95767645136</v>
       </c>
       <c r="I6" t="n">
-        <v>93766.69560188688</v>
+        <v>93731.95767645139</v>
       </c>
       <c r="J6" t="n">
-        <v>-73838.48220809542</v>
+        <v>-73873.22013353134</v>
       </c>
       <c r="K6" t="n">
-        <v>93766.69560188726</v>
+        <v>93731.95767645145</v>
       </c>
       <c r="L6" t="n">
-        <v>67780.32485872286</v>
+        <v>67780.32485872318</v>
       </c>
       <c r="M6" t="n">
-        <v>-45399.25087657169</v>
+        <v>-45399.25087657187</v>
       </c>
       <c r="N6" t="n">
-        <v>87208.04285235456</v>
+        <v>87208.04285235502</v>
       </c>
       <c r="O6" t="n">
-        <v>87208.04285235461</v>
+        <v>87208.04285235467</v>
       </c>
       <c r="P6" t="n">
-        <v>87208.04285235467</v>
+        <v>87208.0428523547</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241343</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,11 +26978,11 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>60.6940104824148</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>6.515898880288773</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,10 +27537,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>80.94049690661286</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -27591,7 +27591,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>133.807838440872</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>310.7205082295219</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27673,16 +27673,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>45.457904300265</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.2585054191541</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>71.50697410506457</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>295.0436884681448</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>174.8271075263179</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28029,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>95.89043294470855</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,19 +28062,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>106.3495974354629</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30235,10 +30235,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,34 +31513,34 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31549,13 +31549,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,34 +31592,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31628,10 +31628,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31677,19 +31677,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,16 +32789,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,16 +33032,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>652.0478969157699</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>276.96469254416</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33284,16 +33284,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,19 +33500,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,22 +33737,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>516.6542155585819</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,13 +33971,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>162.5000833330458</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33989,10 +33989,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34445,13 +34445,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457287</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>341.8791195350533</v>
       </c>
       <c r="P3" t="n">
-        <v>304.632674239197</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,28 +35015,28 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>566.6829634324471</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P6" t="n">
-        <v>304.6326742391977</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,28 +35173,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>640.584832100039</v>
       </c>
       <c r="M9" t="n">
-        <v>465.1758167018094</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000391</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>436.2707275254373</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35902,7 +35902,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,13 +36440,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,16 +36680,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>509.9138629937516</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>150.1270658774933</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>374.5201816365636</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111713</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819473</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,13 +37619,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>23.94570355317166</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37637,10 +37637,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38093,13 +38093,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
